--- a/Admin/Justin/Time_Sheet_Week11.xlsx
+++ b/Admin/Justin/Time_Sheet_Week11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Classes\Captsone\SeniorDesignProject\Admin\Justin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E2A98-AFB6-4C00-9D88-075ADDA10C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0204E6-9B4B-4EE2-87EF-FC0FAA5276A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4035" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Front-End Meet</t>
+  </si>
+  <si>
+    <t>TA Meeting</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,25 +683,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="C5" s="4">
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="D5" s="4">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="E5" s="4">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="F5" s="4">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="G5" s="4">
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="H5" s="4">
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>4</v>
@@ -719,7 +722,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10">
-        <f t="shared" ref="I6:I8" si="0">SUM(B6:H6)</f>
+        <f t="shared" ref="I6:I9" si="0">SUM(B6:H6)</f>
         <v>1.5</v>
       </c>
       <c r="J6" s="6"/>
@@ -730,20 +733,22 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -766,11 +771,13 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -778,14 +785,14 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10">
-        <f t="shared" ref="I9" si="1">SUM(B9:H9)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -795,86 +802,103 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10">
-        <f>SUM(B10:H10)</f>
+        <f t="shared" ref="I10" si="1">SUM(B10:H10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
+        <f>SUM(B11:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <f t="shared" ref="B11:I11" si="2">SUM(B6:B10)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B12" s="10">
+        <f t="shared" ref="B12:I12" si="2">SUM(B6:B11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
     </row>
